--- a/pred_ohlcv/54_21/2020-01-22 WPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 WPX ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-67836.21927206372</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>134688.1826279363</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>565695.4907279364</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>15471.45782793639</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-675694.7579720636</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-890528.9093720636</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-3432190.854472063</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-2957488.797469198</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-4486952.799291739</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-4017236.876191739</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-4134065.897091739</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-4134065.897091739</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-3847501.358291739</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-4215482.238291739</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-4215482.238291739</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-4215482.238291739</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-4215482.238291739</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-4215482.238291739</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-4215482.238291739</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-5431279.408591738</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-15031952.39233421</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-15031952.39233421</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-14975042.39398619</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-14975052.39658619</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-14975605.89048619</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-14976986.05748619</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-15020187.13268619</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-15016838.69078619</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-15016838.69078619</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-15018986.98118619</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-15018986.98118619</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-15018859.98118619</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-15018872.80591233</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-15021934.08691232</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-15038360.65631232</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-15022711.38471232</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-15022735.38471232</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-15022735.38471232</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-15070999.80721232</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-15069095.52021232</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-15069021.13171232</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-15069021.13171232</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-15069021.13171232</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-15060849.88971232</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-15060849.88971232</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-15060943.88971232</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-15060181.48971232</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-15083828.52911232</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-15083828.52911232</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-15082690.89191232</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-15082690.89191232</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-15082600.25961232</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-15085006.69201232</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-15083042.92050972</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-15083046.92050972</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-15077502.58000972</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-15075591.10666609</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-15073297.85106609</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-15075116.94436609</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-15078406.94436609</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-15082128.06216609</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-15094412.63486608</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-15095394.31026608</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-15085154.87296609</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-15078368.60806609</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-15042044.47936609</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-15032145.01826609</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-15028772.15706609</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-15028772.15706609</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-15028772.15706609</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-15028772.15706609</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-15061575.48696609</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-15061465.48696609</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-15076516.60096609</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-15078347.92286609</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-15081137.72826609</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-15080173.60526609</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-15077452.67026609</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-15082277.19846609</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-15082277.19846609</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-15082217.55526609</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-15093787.13386609</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-15093787.13386609</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-15093787.13386609</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-15093091.32556609</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-15093919.94236609</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-15076189.40966609</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-15076189.40966609</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-15076495.38406609</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-15076495.38406609</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-15076495.38406609</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-15114589.43446609</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-15115738.31786609</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-15136305.74886609</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-15139429.72936609</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-15140636.81726609</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-15143197.02126609</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-15206589.85316609</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-15221165.53106609</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-15216508.85356609</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-15223737.05486609</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-15352474.43686609</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-15355900.16646609</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-15232896.64596625</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-15239060.31336625</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-15236376.14986625</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-15236376.14986625</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-15239551.65691322</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-15239526.65691322</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-15245477.57691322</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-15245477.57691322</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-15245477.57691322</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-15229472.17344391</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-15224088.29464391</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-15185185.95474391</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-15178392.74954391</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-15178392.74954391</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-15150453.51394391</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-15150453.51394391</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-15150453.51394391</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-15216414.46793872</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-15227445.75433872</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-15227445.75433872</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-15318753.53093872</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-15335071.84773872</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-15335280.56756143</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-15364317.44676143</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-15434867.46606143</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-15484683.19976143</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-15498735.84996143</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-15440446.63256143</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-15417756.71601061</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-15417756.71601061</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-15418244.71601061</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-15418244.71601061</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-15385803.3654094</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-15396629.1165094</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-15396629.1165094</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-15393464.1453094</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-15393902.7944094</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-15393902.7944094</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-15388930.1937094</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-15407892.3893094</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-15407892.3893094</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-15407896.3893094</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-15411674.18590939</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-15429649.38050939</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-15421157.82590939</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-15424762.35020939</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-15424762.35020939</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-15290786.51420939</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-15290786.51420939</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-15376871.36280939</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-15376871.36280939</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-15376871.36280939</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-15377152.01850939</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-15377152.01850939</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-15377152.01850939</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-15372158.91000939</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-15372153.76880939</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-15372174.31740939</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-15367722.16910939</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-15326602.65290939</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-15330247.80730939</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-15304188.93680939</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-15304188.93680939</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-15304185.13680939</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-15304185.13680939</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-15328248.93840939</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-15328252.73840939</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-15310074.69310939</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-15309671.09820939</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-15309674.89820939</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-15309678.69820939</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-15315253.51310939</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-15315216.37270939</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-15312212.37270939</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-15313590.37270939</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-15313590.37270939</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-15313590.37270939</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-15349677.18270939</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-15408114.44500939</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-15408127.28640939</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-15408123.28640939</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-15408123.28640939</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-15416362.39990939</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-15435319.34060939</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-15528895.07720939</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-15528895.07720939</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-15528891.07720939</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-15520636.04030939</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-15520636.04030939</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-15581475.99950939</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-15581471.99950939</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-15608541.18590939</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-15608537.18590939</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-15608537.18590939</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-15604382.16990939</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-15614024.49250939</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-15614024.49250939</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-15631382.72830939</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-15660137.51790939</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-15653560.23850939</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-15677573.49070939</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-15658649.77430939</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-15658649.77430939</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-15658649.77430939</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-15658649.77430939</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-15712287.68770939</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-15701636.48420939</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-15701629.96250939</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-15697479.18170939</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-15723731.34630939</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-15723279.74710939</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-15721715.26904585</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-15721715.26904585</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-15736083.84254585</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-15836404.30374585</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-15835517.25014585</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-15846975.63144585</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-15846975.63144585</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-15844248.35871858</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-15844248.35871858</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-15844248.35871858</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-15844248.35871858</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-15844248.35871858</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-15844338.99771858</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-15844315.90101858</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-15854681.98671858</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-15848278.66361858</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-15848278.66361858</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-15847641.03861858</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-15847641.03861858</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-15847641.03861858</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-15861306.26853885</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-15861306.26853885</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-15858714.79313885</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-15862246.20733885</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-15836081.30364325</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-15835544.18243113</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-15835544.18243113</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-15835544.18243113</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-15835544.18243113</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-15859403.53637355</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-15881865.30647355</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-15881245.45067355</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-15852796.49277355</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-15853242.78637355</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-15848861.84777355</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-15834656.13327355</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-15835091.53657355</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-15835091.53657355</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-15835091.53657355</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-15835091.53657355</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-15835091.53657355</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-15835476.53657355</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-15809632.49107355</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-15809632.49107355</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-15809632.49107355</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-15813665.84907355</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-15813665.84907355</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-15811496.46707355</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-15765027.37907355</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-15765027.37907355</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-15765027.37907355</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-15768715.62127355</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-15801190.33057356</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-15800670.50367356</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-15838115.47507356</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-15838115.47507356</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-15868293.72827356</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-15860866.54067356</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-15906295.58437356</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-15911430.18820756</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-15911730.18820756</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-15901053.56650756</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-15901053.56650756</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-15901053.56650756</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-15903735.71820755</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-15903730.71820755</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-15905936.14820755</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-15897994.21600755</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-15960463.62480756</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-15957186.60360756</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-15963850.57690756</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-15963850.57690756</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-15966253.97320756</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-15966253.97320756</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-15892030.95643714</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-15712878.12763714</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-15731520.01783714</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-15711661.64453714</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-15522065.42243714</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-15520468.27303714</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-15501264.79643714</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-15484397.82663714</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-15457823.62943714</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-15348360.12523714</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-15348360.12523714</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-15304394.47123714</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-15304394.47123714</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-15277247.80993714</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-15223569.56283714</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-15138118.8995837</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-15269766.19233025</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-15341909.98724431</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-15328679.67397372</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-15328687.38997372</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-15313267.74055123</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-15303526.61208295</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-15270836.53768295</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-15297464.73508295</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-15297464.73508295</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-15238336.59140524</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-15253712.40275641</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-14951234.70397121</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-14883998.5326572</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-15246597.86498567</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-15506567.93678567</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-15710170.72568567</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-15473285.03548567</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-15473285.03548567</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-15434291.67648567</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-15434291.67648567</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-15270075.08788567</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-15270831.18788567</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-15270671.18788567</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-15272820.20559145</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-15272070.58040405</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-15269822.1001569</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-15269931.4910569</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-15270311.7187569</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-15288327.6489569</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-15267348.0762569</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-15536046.15318209</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-15487448.75962868</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-15509047.00472868</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-15508081.12252868</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-15510796.73442868</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-15529267.9171292</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-15566824.60519657</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-15566824.60519657</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-15588045.60519657</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-15588045.60519657</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-15582684.67119657</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-15577312.73419657</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-15569228.38669657</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-15583020.57209657</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-15705871.68049657</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-15544962.87119657</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-15548946.16259657</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-15430942.54539657</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-15463223.88489657</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-15470765.41149657</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-15470765.41149657</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-15498972.39129657</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-15495205.85041275</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-15502561.91671275</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-15503450.34961275</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-15504457.35120206</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-15490589.15470206</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-15491477.58760206</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-15491023.3105393</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-15495893.4563393</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-15495893.4563393</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-15496540.4603393</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-15496612.7137393</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-15496612.7137393</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-15496712.7137393</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-15468022.17566215</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-15468022.17566215</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-15477567.83125347</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-15462222.2811503</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-15416387.06751032</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-15440937.95151353</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-15434965.28331354</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-15434965.28331354</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-15435442.88551353</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-15435454.28321354</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-15314470.69035973</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-15406011.27175973</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-16313570.22684764</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-16313570.22684764</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-16354792.23784764</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-16503564.99064764</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-16505105.53614764</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-16527537.88926239</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-16527537.88926239</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-16537458.50806239</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-16460790.44196239</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-16461734.92236239</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-16458897.53944001</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-16460323.7138853</v>
       </c>
       <c r="H1007">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-16474487.0183853</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-16500999.1144853</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-16570901.2937853</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-16866436.2656853</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-16994622.2530853</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-16953879.20198531</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-16953733.00488531</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-16957360.79948531</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-16974883.31958531</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-16924257.58192259</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-16960317.47542259</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-16939674.95663268</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-16939674.95663268</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-17025130.35823268</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 WPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 WPX ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-252785.1080720637</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-67836.21927206372</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2639.479627936278</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>134688.1826279363</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>565695.4907279364</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>15471.45782793639</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-675694.7579720636</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-890528.9093720636</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-3432190.854472063</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-2957488.797469198</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-3564292.084191739</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-3899745.048991739</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-3794255.160091739</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-4486952.799291739</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-4134065.897091739</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-4215482.238291739</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-4215482.238291739</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-4215482.238291739</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-4215482.238291739</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-4215482.238291739</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-4513016.449191739</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-4513885.833691739</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-6156121.460591739</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-5430727.743791739</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-5431279.408591738</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-15041251.12492597</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-15041251.12492597</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-15040705.26822597</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-15035181.52773009</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-15038761.40943421</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-15037165.95493421</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-15037616.54373421</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-15031952.39233421</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-15031952.39233421</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-14975042.39398619</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-14975052.39658619</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-14975605.89048619</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-14976986.05748619</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-15020187.13268619</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-15016838.69078619</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-15016838.69078619</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-15018986.98118619</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-15018986.98118619</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-15018859.98118619</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-15018872.80591233</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-15018850.80591233</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-15029488.40781233</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-15020379.85991232</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-15021934.08691232</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-15021934.08691232</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-15021461.08691232</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-15038360.65631232</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-15022711.38471232</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-15022735.38471232</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-15022735.38471232</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-15070999.80721232</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-15069095.52021232</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-15069021.13171232</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-15069021.13171232</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-15069021.13171232</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-15060849.88971232</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-15060849.88971232</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-15060943.88971232</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-15060181.48971232</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-15083828.52911232</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-15083828.52911232</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-15082690.89191232</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-15082690.89191232</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-15082600.25961232</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-15085006.69201232</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-15083042.92050972</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-15083046.92050972</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-15077502.58000972</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-15075591.10666609</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-15073297.85106609</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-15075116.94436609</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-15078406.94436609</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-15082128.06216609</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-15082953.07726609</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-15093919.96706608</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-15093919.96706608</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-15096867.25716609</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-15094412.63486608</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-15107219.80246609</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-15095394.31026608</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-15086136.97796609</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-15086136.97796609</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-15086026.97796609</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-15085154.87296609</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-15078368.60806609</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-15042044.47936609</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-15032145.01826609</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-15028772.15706609</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-15028772.15706609</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-15028772.15706609</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-15028772.15706609</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-15061575.48696609</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-15061465.48696609</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-15076516.60096609</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-15078347.92286609</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-15081137.72826609</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-15080173.60526609</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-15077452.67026609</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-15082277.19846609</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-15082277.19846609</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-15082217.55526609</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-15093787.13386609</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-15093787.13386609</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-15093787.13386609</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-15093091.32556609</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-15093919.94236609</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-15076189.40966609</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-15076189.40966609</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-15076495.38406609</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-15076495.38406609</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-15076495.38406609</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-15114589.43446609</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-15115738.31786609</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-15136305.74886609</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-15139429.72936609</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-15140636.81726609</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-15143197.02126609</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-15206589.85316609</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-15221165.53106609</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-15216508.85356609</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-15223737.05486609</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-15352474.43686609</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-15232896.64596625</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-15239060.31336625</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-15236376.14986625</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-15236376.14986625</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-15239551.65691322</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-15239526.65691322</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-15245477.57691322</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-15245477.57691322</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-15245477.57691322</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-15229472.17344391</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-15224088.29464391</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-15185185.95474391</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-15178392.74954391</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-15178392.74954391</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-15150453.51394391</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-15150453.51394391</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-15150453.51394391</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-15216414.46793872</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-15227445.75433872</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-15227445.75433872</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-15318753.53093872</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-15335071.84773872</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-15335280.56756143</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-15364317.44676143</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-15434867.46606143</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-15484683.19976143</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-15498735.84996143</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-15440446.63256143</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-15417756.71601061</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-15417756.71601061</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-15418244.71601061</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-15418244.71601061</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-15385803.3654094</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-15396629.1165094</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-15396629.1165094</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-15393464.1453094</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-15393902.7944094</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-15393902.7944094</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-15388930.1937094</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-15407892.3893094</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-15407892.3893094</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-15407896.3893094</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-15411674.18590939</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-15429649.38050939</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-15421157.82590939</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-15424762.35020939</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-15424762.35020939</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-15290786.51420939</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-15290786.51420939</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-15376871.36280939</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-15376871.36280939</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-15376871.36280939</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-15377152.01850939</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-15377152.01850939</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-15377152.01850939</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-15372158.91000939</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-15372153.76880939</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-15372174.31740939</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-15367722.16910939</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-15326602.65290939</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-15330247.80730939</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-15304188.93680939</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-15304188.93680939</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-15304185.13680939</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-15304185.13680939</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-15328248.93840939</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-15328252.73840939</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-15310074.69310939</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-15309671.09820939</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-15309674.89820939</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-15309678.69820939</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-15315253.51310939</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-15315216.37270939</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-15312212.37270939</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-15313590.37270939</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-15313590.37270939</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-15313590.37270939</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-15349677.18270939</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-15408114.44500939</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-15408127.28640939</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-15408123.28640939</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-15408123.28640939</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-15416362.39990939</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-15435319.34060939</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-15528895.07720939</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-15528895.07720939</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-15528891.07720939</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-15520636.04030939</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-15520636.04030939</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-15581475.99950939</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-15581471.99950939</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-15608541.18590939</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-15608537.18590939</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-15608537.18590939</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-15604382.16990939</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-15614024.49250939</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-15614024.49250939</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-15631382.72830939</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-15660137.51790939</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-15653560.23850939</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-15677573.49070939</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-15658649.77430939</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-15658649.77430939</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-15658649.77430939</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-15658649.77430939</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-15712287.68770939</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-15701636.48420939</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-15701629.96250939</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-15697479.18170939</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-15723731.34630939</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-15723279.74710939</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-15721715.26904585</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-15721715.26904585</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-15736083.84254585</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-15836404.30374585</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-15835517.25014585</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-15846975.63144585</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-15846975.63144585</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-15844248.35871858</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-15844248.35871858</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-15844248.35871858</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-15844248.35871858</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-15844248.35871858</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-15844338.99771858</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-15844315.90101858</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-15854681.98671858</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-15848278.66361858</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-15848278.66361858</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-15847641.03861858</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-15847641.03861858</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-15847641.03861858</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-15861306.26853885</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-15861306.26853885</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-15858714.79313885</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-15862246.20733885</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-15836081.30364325</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-15835544.18243113</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-15835544.18243113</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-15835544.18243113</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-15835544.18243113</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-15859403.53637355</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-15881865.30647355</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-15881245.45067355</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-15852796.49277355</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-15853242.78637355</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-15848861.84777355</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-15834656.13327355</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-15835091.53657355</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-15835091.53657355</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-15835091.53657355</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-15835091.53657355</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-15835091.53657355</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-15835476.53657355</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-15809632.49107355</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-15809632.49107355</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-15809632.49107355</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-15813665.84907355</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-15813665.84907355</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-15811496.46707355</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-15765027.37907355</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-15765027.37907355</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-15765027.37907355</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-15768715.62127355</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-15801190.33057356</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-15800670.50367356</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-15838115.47507356</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-15838115.47507356</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-15868293.72827356</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-15860866.54067356</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-15906295.58437356</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-15911430.18820756</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-15911730.18820756</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-15901053.56650756</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-15901053.56650756</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-15901053.56650756</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-15903735.71820755</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-15903730.71820755</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-15905936.14820755</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-15897994.21600755</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-15960463.62480756</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-15957186.60360756</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-15963850.57690756</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-15963850.57690756</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-15966253.97320756</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-15966253.97320756</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-15892030.95643714</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-15712878.12763714</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-15731520.01783714</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-15711661.64453714</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-15522065.42243714</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-15520468.27303714</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-15501264.79643714</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-15484397.82663714</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-15457823.62943714</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-15348360.12523714</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-15348360.12523714</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-15304394.47123714</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-15304394.47123714</v>
       </c>
       <c r="H584">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-15277247.80993714</v>
       </c>
       <c r="H585">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-15223569.56283714</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-15138118.8995837</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-15269766.19233025</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-15341909.98724431</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-15328679.67397372</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-15328687.38997372</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-15313267.74055123</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-15303526.61208295</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-15270836.53768295</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-15297464.73508295</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-15297464.73508295</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-15238336.59140524</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-15253712.40275641</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-14951234.70397121</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-14883998.5326572</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-15246597.86498567</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-15506567.93678567</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-15710170.72568567</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-15473285.03548567</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-15473285.03548567</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-15434291.67648567</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-15434291.67648567</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-15270075.08788567</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-15270831.18788567</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-15270671.18788567</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-15272820.20559145</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-15272070.58040405</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-15269822.1001569</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-15269931.4910569</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-15270311.7187569</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-15288327.6489569</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-15267348.0762569</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-15536046.15318209</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-15487448.75962868</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-15509047.00472868</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-15508081.12252868</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-15510796.73442868</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-15529267.9171292</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-15566824.60519657</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-15566824.60519657</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-15588045.60519657</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-15588045.60519657</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-15582684.67119657</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-15577312.73419657</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-15569228.38669657</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-15583020.57209657</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-15705871.68049657</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-15544962.87119657</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-15548946.16259657</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-15430942.54539657</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>-15463223.88489657</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-15470765.41149657</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-15470765.41149657</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-15498972.39129657</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-15495205.85041275</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-15502561.91671275</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-15503450.34961275</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-15504457.35120206</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-15490589.15470206</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-15491477.58760206</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-15491023.3105393</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-15495893.4563393</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-15495893.4563393</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-15496540.4603393</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-15496612.7137393</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-15496612.7137393</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-15496712.7137393</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-15468022.17566215</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-15468022.17566215</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-15477567.83125347</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-15462222.2811503</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-15416387.06751032</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-15440937.95151353</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-15434965.28331354</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-15434965.28331354</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-15435442.88551353</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-15435454.28321354</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-15314470.69035973</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-15406011.27175973</v>
       </c>
       <c r="H924">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-16313570.22684764</v>
       </c>
       <c r="H958">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-16313570.22684764</v>
       </c>
       <c r="H959">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-16354792.23784764</v>
       </c>
       <c r="H960">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-16503564.99064764</v>
       </c>
       <c r="H961">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-16505105.53614764</v>
       </c>
       <c r="H962">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-16527537.88926239</v>
       </c>
       <c r="H983">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-16527537.88926239</v>
       </c>
       <c r="H984">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-16537458.50806239</v>
       </c>
       <c r="H1002">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-16473842.74044763</v>
       </c>
       <c r="H1003">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-16460790.44196239</v>
       </c>
       <c r="H1004">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-16461734.92236239</v>
       </c>
       <c r="H1005">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-16458897.53944001</v>
       </c>
       <c r="H1006">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26574,7 +26574,7 @@
         <v>-16460323.7138853</v>
       </c>
       <c r="H1007">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-16474487.0183853</v>
       </c>
       <c r="H1010">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-16500999.1144853</v>
       </c>
       <c r="H1013">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-16570901.2937853</v>
       </c>
       <c r="H1015">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-16957360.79948531</v>
       </c>
       <c r="H1030">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-16924257.58192259</v>
       </c>
       <c r="H1050">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-16960317.47542259</v>
       </c>
       <c r="H1051">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-16939674.95663268</v>
       </c>
       <c r="H1053">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-17025130.35823268</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-17022996.45363268</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
